--- a/backend/api/servicehandler/services/Medical Professionals.xlsx
+++ b/backend/api/servicehandler/services/Medical Professionals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{02FD8E02-651D-445E-B324-FFB638C106E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B70010B-E0FD-41E6-A0E3-CC8491A8E0C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F16EB3-3291-C24E-93FD-B476C3B779BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="-28140" windowWidth="25380" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,9 +556,6 @@
     <t>50 Union Street  Grand Falls-Windsor, NLA2A 2E1</t>
   </si>
   <si>
-    <t>(705)8331441</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/centre-de-readaptation-en-deficience-physique-lucie-bruneau?nid=579101</t>
   </si>
   <si>
@@ -688,9 +685,6 @@
     <t>300 Prince Phillip Drive St. John's, NLA1B 3V6</t>
   </si>
   <si>
-    <t>(709)777-4957</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/child-development-nurse-coordinator-janeway-eastern-region?nid=582486</t>
   </si>
   <si>
@@ -886,9 +880,6 @@
     <t>10 Beaver Pond Road, PO Box 1510 Bonavista, NLA0C 1B0</t>
   </si>
   <si>
-    <t>(709)468-1001</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/disability-services-corner-brook-western-region?nid=582541</t>
   </si>
   <si>
@@ -898,9 +889,6 @@
     <t>Hammond Building, 169 West Valley Road Corner Brook, NLA0L 1A0</t>
   </si>
   <si>
-    <t>7096345551 ext0</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/disability-services-gander-central-region?nid=582536</t>
   </si>
   <si>
@@ -910,9 +898,6 @@
     <t>Bell Place Community Health Centre, 3 Bell Place Gander, NLA1V 2T4</t>
   </si>
   <si>
-    <t>(709)651-6241</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/disability-services-happy-valley-goose-bay-labrador-region?nid=582556</t>
   </si>
   <si>
@@ -922,9 +907,6 @@
     <t>Community Health &amp; Wellness, Labrador - Grenfell Health, P.O Box 7000 Station C Happy Valley- Goose Bay, NLA0P 1C0</t>
   </si>
   <si>
-    <t>(709)897-3127</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/discover-vision-therapy?nid=562721</t>
   </si>
   <si>
@@ -946,9 +928,6 @@
     <t>302-1630 Pandosy St Kelowna, BCV1Y 1P7</t>
   </si>
   <si>
-    <t>250-868-0221</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/dr-charles-l-legrow-health-centre?nid=568011</t>
   </si>
   <si>
@@ -982,9 +961,6 @@
     <t>915-850 West Hastings Street Vancouver, BCV6C 1E1</t>
   </si>
   <si>
-    <t>604-685-7722</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/edgemont-optometry?nid=562766</t>
   </si>
   <si>
@@ -1456,9 +1432,6 @@
     <t>#250, 3115-12 street NE Calgary, ABT2E 7J2</t>
   </si>
   <si>
-    <t>403-813-4096</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/insight-optometry?nid=563531</t>
   </si>
   <si>
@@ -1480,9 +1453,6 @@
     <t>10905 Henri-Bourassa Blvd. East  Montreal, QCH1C 1H1</t>
   </si>
   <si>
-    <t>514 648-8461</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/inuvik-health-services?nid=568256</t>
   </si>
   <si>
@@ -1552,9 +1522,6 @@
     <t>1270, chemin Sainte-Foy, Bureau 1124  Quebec, QCG1S 2M6</t>
   </si>
   <si>
-    <t>4186845331 x580</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/jeffery-hale-hospital?nid=579776</t>
   </si>
   <si>
@@ -1588,9 +1555,6 @@
     <t>Calgary, AB</t>
   </si>
   <si>
-    <t>403- 590-2122</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/kaleidoscope-pediatric-consultants?nid=559851</t>
   </si>
   <si>
@@ -1669,9 +1633,6 @@
     <t>200 Taunton Rd. W. Whitby, ONL1R3H8</t>
   </si>
   <si>
-    <t>289-928-5028</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/sound-idears-hearing-listening-clinic?nid=588721</t>
   </si>
   <si>
@@ -1705,9 +1666,6 @@
     <t>#200 3219 Eby Street  Terrace, BCV8G 4R3</t>
   </si>
   <si>
-    <t>250-635-3178</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/touchstone-naturopathic-centre-0?nid=588821</t>
   </si>
   <si>
@@ -1717,9 +1675,6 @@
     <t>Suite 101 - 2087 Dundas Street E Mississauga, ONL4X 2V7</t>
   </si>
   <si>
-    <t>416-508-1058</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/watson-lake-health-centre?nid=582456</t>
   </si>
   <si>
@@ -1781,6 +1736,51 @@
   </si>
   <si>
     <t>Myautism webpage Info</t>
+  </si>
+  <si>
+    <t>(416) 508-1058</t>
+  </si>
+  <si>
+    <t>(250) 635-3178</t>
+  </si>
+  <si>
+    <t>(289) 928-5028</t>
+  </si>
+  <si>
+    <t>(403) 590-2122</t>
+  </si>
+  <si>
+    <t>(418) 684-5331-580</t>
+  </si>
+  <si>
+    <t>(514) 648-8461</t>
+  </si>
+  <si>
+    <t>(403) 813-4096</t>
+  </si>
+  <si>
+    <t>(604) 685-7722</t>
+  </si>
+  <si>
+    <t>(250) 868-0221</t>
+  </si>
+  <si>
+    <t>(709) 634-5551-0</t>
+  </si>
+  <si>
+    <t>(709) 651-6241</t>
+  </si>
+  <si>
+    <t>(709) 897-3127</t>
+  </si>
+  <si>
+    <t>(709) 468-1001</t>
+  </si>
+  <si>
+    <t>(709) 777-4957</t>
+  </si>
+  <si>
+    <t>(705) 833-1441</t>
   </si>
 </sst>
 </file>
@@ -2168,34 +2168,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="215" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90.625" customWidth="1"/>
+    <col min="1" max="1" width="90.6640625" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="43.375" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -2822,1463 +2822,1463 @@
         <v>177</v>
       </c>
       <c r="D46" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>179</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>180</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>181</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>183</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>184</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>185</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>187</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>188</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>189</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>191</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>192</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>193</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>195</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>196</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>197</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>199</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>200</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>201</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>203</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>204</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>205</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>207</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>208</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>209</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>211</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>212</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>213</v>
       </c>
-      <c r="D55" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>215</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>216</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>217</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>219</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>220</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>221</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B58" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" t="s">
         <v>223</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>224</v>
       </c>
-      <c r="C58" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B59" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
         <v>226</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>227</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>228</v>
       </c>
-      <c r="D59" t="s">
+      <c r="B60" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
         <v>230</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>231</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>232</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B61" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C61" t="s">
         <v>234</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>236</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B62" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C62" t="s">
         <v>238</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>239</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>240</v>
       </c>
-      <c r="D62" t="s">
+      <c r="B63" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C63" t="s">
         <v>242</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>243</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>244</v>
       </c>
-      <c r="D63" t="s">
+      <c r="B64" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C64" t="s">
         <v>246</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>247</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>248</v>
       </c>
-      <c r="D64" t="s">
+      <c r="B65" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C65" t="s">
         <v>250</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>251</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>252</v>
       </c>
-      <c r="D65" t="s">
+      <c r="B66" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C66" t="s">
         <v>254</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>255</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>256</v>
       </c>
-      <c r="D66" t="s">
+      <c r="B67" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
         <v>258</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>259</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>260</v>
       </c>
-      <c r="D67" t="s">
+      <c r="B68" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
         <v>262</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>263</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>264</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B69" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
         <v>266</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>267</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>268</v>
       </c>
-      <c r="D69" t="s">
+      <c r="B70" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
         <v>270</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>271</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>272</v>
       </c>
-      <c r="D70" t="s">
+      <c r="B71" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
         <v>274</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>275</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>276</v>
       </c>
-      <c r="D71" t="s">
+      <c r="B72" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
         <v>278</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>279</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>280</v>
       </c>
-      <c r="D72" t="s">
+      <c r="B73" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
         <v>282</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>283</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
         <v>284</v>
       </c>
-      <c r="D73" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C74" t="s">
         <v>285</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>286</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
         <v>287</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C75" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D75" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>289</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>290</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>291</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B77" t="s">
         <v>293</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C77" t="s">
         <v>294</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D77" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>295</v>
       </c>
-      <c r="D76" t="s">
+      <c r="B78" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C78" t="s">
         <v>297</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D78" t="s">
         <v>298</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>299</v>
       </c>
-      <c r="D77" t="s">
+      <c r="B79" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C79" t="s">
         <v>301</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D79" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>302</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B80" t="s">
         <v>303</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C80" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D80" t="s">
         <v>305</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>306</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B81" t="s">
         <v>307</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C81" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D81" t="s">
         <v>309</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>310</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B82" t="s">
         <v>311</v>
       </c>
-      <c r="D80" t="s">
+      <c r="C82" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="D82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>313</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>314</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>315</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>317</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>318</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>319</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>321</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>322</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>323</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>325</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>326</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>327</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>329</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>330</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>331</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>333</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>334</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>335</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>337</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" t="s">
         <v>338</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D89" t="s">
         <v>339</v>
       </c>
-      <c r="D87" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B90" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" t="s">
         <v>341</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D90" t="s">
         <v>342</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>343</v>
       </c>
-      <c r="D88" t="s">
+      <c r="B91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="D91" t="s">
         <v>345</v>
       </c>
-      <c r="B89" t="s">
-        <v>342</v>
-      </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>346</v>
       </c>
-      <c r="D89" t="s">
+      <c r="B92" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D92" t="s">
         <v>348</v>
       </c>
-      <c r="B90" t="s">
-        <v>342</v>
-      </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>349</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B93" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C93" t="s">
         <v>351</v>
       </c>
-      <c r="B91" t="s">
-        <v>342</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D93" t="s">
         <v>352</v>
       </c>
-      <c r="D91" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B94" t="s">
         <v>354</v>
       </c>
-      <c r="B92" t="s">
-        <v>342</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>355</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>357</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>358</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>359</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>361</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>362</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>363</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>365</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>366</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>367</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D97" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>369</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>370</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>371</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>373</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
+        <v>370</v>
+      </c>
+      <c r="C99" t="s">
         <v>374</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D99" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>375</v>
       </c>
-      <c r="D97" t="s">
+      <c r="B100" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C100" t="s">
         <v>377</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D100" t="s">
         <v>378</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>379</v>
       </c>
-      <c r="D98" t="s">
+      <c r="B101" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C101" t="s">
         <v>381</v>
       </c>
-      <c r="B99" t="s">
-        <v>378</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D101" t="s">
         <v>382</v>
       </c>
-      <c r="D99" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>383</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>384</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>385</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>387</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>388</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>389</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>391</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>392</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>393</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>395</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>396</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>397</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>399</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>400</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>401</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D106" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>403</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>404</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>405</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>407</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>408</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>409</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>411</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>412</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>413</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>415</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>416</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>417</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>419</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>420</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>421</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>423</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>424</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>425</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>427</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>428</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>429</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>431</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>432</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>433</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>435</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>436</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" t="s">
         <v>437</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>439</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>440</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>441</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D116" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>443</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>444</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>445</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>447</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>448</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C118" t="s">
         <v>449</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>451</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>452</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>453</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D119" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>455</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>456</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>457</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D120" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>459</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>460</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C121" t="s">
         <v>461</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D121" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>463</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>464</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>465</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>467</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>468</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" t="s">
         <v>469</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D123" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B124" t="s">
         <v>471</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C124" t="s">
         <v>472</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D124" t="s">
         <v>473</v>
       </c>
-      <c r="D122" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B125" t="s">
         <v>475</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C125" t="s">
         <v>476</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D125" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>477</v>
       </c>
-      <c r="D123" t="s">
+      <c r="B126" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C126" t="s">
         <v>479</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D126" t="s">
         <v>480</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>481</v>
       </c>
-      <c r="D124" t="s">
+      <c r="B127" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C127" t="s">
         <v>483</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D127" t="s">
         <v>484</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>485</v>
       </c>
-      <c r="D125" t="s">
+      <c r="B128" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C128" t="s">
         <v>487</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D128" t="s">
         <v>488</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>489</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B129" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C129" t="s">
         <v>491</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D129" t="s">
         <v>492</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>493</v>
       </c>
-      <c r="D127" t="s">
+      <c r="B130" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C130" t="s">
         <v>495</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D130" t="s">
         <v>496</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>497</v>
       </c>
-      <c r="D128" t="s">
+      <c r="B131" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C131" t="s">
         <v>499</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D131" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>500</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B132" t="s">
         <v>501</v>
       </c>
-      <c r="D129" t="s">
+      <c r="C132" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="D132" t="s">
         <v>503</v>
       </c>
-      <c r="B130" t="s">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>504</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B133" t="s">
         <v>505</v>
       </c>
-      <c r="D130" t="s">
+      <c r="C133" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="D133" t="s">
         <v>507</v>
       </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>508</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B134" t="s">
         <v>509</v>
       </c>
-      <c r="D131" t="s">
+      <c r="C134" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="D134" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>511</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B135" t="s">
         <v>512</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C135" t="s">
         <v>513</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>515</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B136" t="s">
         <v>516</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C136" t="s">
         <v>517</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D136" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>519</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B137" t="s">
         <v>520</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C137" t="s">
+        <v>355</v>
+      </c>
+      <c r="D137" t="s">
         <v>521</v>
       </c>
-      <c r="D134" t="s">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B138" t="s">
         <v>523</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C138" t="s">
         <v>524</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D138" t="s">
         <v>525</v>
       </c>
-      <c r="D135" t="s">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B139" t="s">
         <v>527</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C139" t="s">
         <v>528</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D139" t="s">
         <v>529</v>
       </c>
-      <c r="D136" t="s">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B140" t="s">
         <v>531</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C140" t="s">
         <v>532</v>
       </c>
-      <c r="C137" t="s">
-        <v>363</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="D140" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>534</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B141" t="s">
         <v>535</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>536</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B142" t="s">
         <v>538</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C142" t="s">
         <v>539</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D142" t="s">
         <v>540</v>
       </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B143" t="s">
         <v>542</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C143" t="s">
         <v>543</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D143" t="s">
         <v>544</v>
       </c>
-      <c r="D140" t="s">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B144" t="s">
         <v>546</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C144" t="s">
         <v>547</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D144" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>548</v>
       </c>
-      <c r="D141" t="s">
+      <c r="B145" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C145" t="s">
         <v>550</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D145" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>551</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B146" t="s">
         <v>552</v>
       </c>
-      <c r="D142" t="s">
+      <c r="C146" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="D146" t="s">
         <v>554</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>555</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B147" t="s">
         <v>556</v>
       </c>
-      <c r="D143" t="s">
+      <c r="C147" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="D147" t="s">
         <v>558</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>559</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B148" t="s">
+        <v>556</v>
+      </c>
+      <c r="C148" t="s">
         <v>560</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D148" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>562</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B149" t="s">
+        <v>556</v>
+      </c>
+      <c r="C149" t="s">
         <v>563</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D149" t="s">
         <v>564</v>
       </c>
-      <c r="D145" t="s">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B150" t="s">
+        <v>556</v>
+      </c>
+      <c r="C150" t="s">
         <v>566</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D150" t="s">
         <v>567</v>
-      </c>
-      <c r="C146" t="s">
-        <v>568</v>
-      </c>
-      <c r="D146" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>570</v>
-      </c>
-      <c r="B147" t="s">
-        <v>571</v>
-      </c>
-      <c r="C147" t="s">
-        <v>572</v>
-      </c>
-      <c r="D147" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>574</v>
-      </c>
-      <c r="B148" t="s">
-        <v>571</v>
-      </c>
-      <c r="C148" t="s">
-        <v>575</v>
-      </c>
-      <c r="D148" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>577</v>
-      </c>
-      <c r="B149" t="s">
-        <v>571</v>
-      </c>
-      <c r="C149" t="s">
-        <v>578</v>
-      </c>
-      <c r="D149" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>580</v>
-      </c>
-      <c r="B150" t="s">
-        <v>571</v>
-      </c>
-      <c r="C150" t="s">
-        <v>581</v>
-      </c>
-      <c r="D150" t="s">
-        <v>582</v>
       </c>
     </row>
   </sheetData>
